--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -294,6 +294,9 @@
     <t>Encounter.id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -313,9 +316,6 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Encounter.meta</t>
   </si>
   <si>
@@ -446,14 +446,21 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -466,6 +473,16 @@
     <t>Encounter.modifierExtension</t>
   </si>
   <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
@@ -504,9 +521,6 @@
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>finished</t>
   </si>
   <si>
     <t>Current state of the encounter.</t>
@@ -837,17 +851,7 @@
     <t>Encounter.participant.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -865,9 +869,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1020,11 +1021,76 @@
     <t>PV1-44, PV1-45</t>
   </si>
   <si>
-    <t>Encounter.plannedStartDate</t>
+    <t>Encounter.actualPeriod.id</t>
+  </si>
+  <si>
+    <t>Encounter.actualPeriod.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Encounter.actualPeriod.start</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>Encounter.actualPeriod.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>Encounter.plannedStartDate</t>
   </si>
   <si>
     <t>The planned start date/time (or admission date) of the encounter</t>
@@ -1862,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1899,7 +1965,7 @@
     <col min="26" max="26" width="48.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.921875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2162,7 +2228,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2171,19 +2237,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2233,13 +2299,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2276,7 +2342,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2285,7 +2351,7 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>99</v>
@@ -2351,7 +2417,7 @@
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
@@ -2388,16 +2454,16 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>105</v>
@@ -2465,7 +2531,7 @@
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2502,7 +2568,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -2579,7 +2645,7 @@
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
@@ -2616,7 +2682,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2693,7 +2759,7 @@
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>126</v>
@@ -2730,7 +2796,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -2837,14 +2903,14 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -2856,15 +2922,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -2913,7 +2981,7 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2925,7 +2993,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -2934,7 +3002,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -2942,42 +3010,46 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3025,7 +3097,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3037,7 +3109,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3046,7 +3118,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3054,10 +3126,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3068,7 +3140,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
@@ -3077,16 +3149,16 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3137,7 +3209,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3152,24 +3224,24 @@
         <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3177,31 +3249,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3209,7 +3281,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>82</v>
@@ -3230,34 +3302,34 @@
         <v>115</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>82</v>
@@ -3266,24 +3338,24 @@
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3294,7 +3366,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
@@ -3303,16 +3375,16 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3339,31 +3411,31 @@
         <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3381,21 +3453,21 @@
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3406,7 +3478,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3418,13 +3490,13 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3451,37 +3523,37 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Z14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
@@ -3493,21 +3565,21 @@
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3518,7 +3590,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3527,19 +3599,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3565,31 +3637,31 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3604,24 +3676,24 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3629,10 +3701,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>82</v>
@@ -3641,16 +3713,16 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3681,25 +3753,25 @@
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3714,56 +3786,56 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3813,13 +3885,13 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
@@ -3828,24 +3900,24 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3856,7 +3928,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -3868,16 +3940,16 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3903,37 +3975,37 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
@@ -3956,10 +4028,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3970,7 +4042,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -3979,16 +4051,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4039,7 +4111,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4057,32 +4129,32 @@
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4094,13 +4166,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4151,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4166,13 +4238,13 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4180,10 +4252,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4194,7 +4266,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4206,13 +4278,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4263,7 +4335,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4284,7 +4356,7 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -4292,10 +4364,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4306,7 +4378,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4318,16 +4390,16 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4377,13 +4449,13 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
@@ -4392,13 +4464,13 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
@@ -4406,10 +4478,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4420,7 +4492,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4432,13 +4504,13 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4489,13 +4561,13 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
@@ -4504,24 +4576,24 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4532,7 +4604,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4541,19 +4613,19 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4603,7 +4675,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4615,27 +4687,27 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4646,7 +4718,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -4658,13 +4730,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4715,16 +4787,16 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -4736,7 +4808,7 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
@@ -4744,14 +4816,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4770,16 +4842,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4829,7 +4901,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4841,7 +4913,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -4850,7 +4922,7 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
@@ -4858,14 +4930,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4878,25 +4950,25 @@
         <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -4957,7 +5029,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -4997,10 +5069,10 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>274</v>
@@ -5102,7 +5174,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5177,7 +5249,7 @@
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5214,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5223,7 +5295,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>290</v>
@@ -5291,7 +5363,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>279</v>
@@ -5300,7 +5372,7 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>294</v>
@@ -5328,7 +5400,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5337,7 +5409,7 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>298</v>
@@ -5412,7 +5484,7 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -5440,7 +5512,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5551,13 +5623,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
@@ -5631,7 +5703,7 @@
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -5668,10 +5740,10 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -5680,13 +5752,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5737,19 +5809,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5758,29 +5830,29 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5792,15 +5864,17 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -5837,31 +5911,31 @@
         <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -5870,18 +5944,18 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5889,31 +5963,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5963,39 +6037,39 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6006,7 +6080,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6015,25 +6089,27 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="R37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6077,16 +6153,16 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6098,18 +6174,18 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6120,7 +6196,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6132,13 +6208,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6189,19 +6265,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6210,29 +6286,29 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6244,17 +6320,15 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6303,19 +6377,19 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -6324,54 +6398,52 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6419,39 +6491,39 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>136</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>82</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6471,18 +6543,20 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6507,11 +6581,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6529,7 +6605,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6558,21 +6634,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6581,16 +6657,16 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6617,13 +6693,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -6641,50 +6717,50 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>201</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6693,19 +6769,19 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>140</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6755,7 +6831,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6767,7 +6843,7 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -6776,7 +6852,7 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -6791,35 +6867,39 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -6867,19 +6947,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -6888,7 +6968,7 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -6903,7 +6983,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6919,20 +6999,18 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -6957,13 +7035,11 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -6981,7 +7057,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6993,7 +7069,7 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7002,7 +7078,7 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7010,14 +7086,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>268</v>
+        <v>365</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7030,26 +7106,22 @@
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7073,13 +7145,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7097,7 +7169,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7109,31 +7181,31 @@
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7149,18 +7221,20 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7185,11 +7259,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7207,7 +7283,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7222,24 +7298,24 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7250,7 +7326,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7262,13 +7338,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7295,13 +7371,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7319,19 +7395,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>370</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7340,29 +7416,29 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7374,16 +7450,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>139</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>140</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>380</v>
+        <v>142</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7433,7 +7509,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7445,7 +7521,7 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -7454,7 +7530,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -7469,38 +7545,38 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>386</v>
+        <v>148</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7525,13 +7601,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7549,7 +7625,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7561,7 +7637,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -7570,29 +7646,29 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>389</v>
+        <v>136</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7601,16 +7677,16 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>165</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7637,13 +7713,11 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7661,7 +7735,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7676,24 +7750,24 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7704,7 +7778,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -7716,17 +7790,15 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -7751,13 +7823,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -7775,7 +7847,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7796,18 +7868,18 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>404</v>
+        <v>201</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7818,7 +7890,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -7830,16 +7902,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>247</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7889,13 +7961,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -7910,7 +7982,7 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -7918,10 +7990,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7932,7 +8004,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -7944,16 +8016,20 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -7977,13 +8053,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8001,19 +8077,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>259</v>
+        <v>403</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8022,10 +8098,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8037,7 +8113,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8056,17 +8132,15 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>263</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8091,13 +8165,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8115,7 +8189,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8127,7 +8201,7 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8136,22 +8210,22 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8164,26 +8238,24 @@
         <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8207,13 +8279,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8231,7 +8303,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8243,7 +8315,7 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8252,18 +8324,18 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>136</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8274,7 +8346,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -8286,15 +8358,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8343,13 +8417,13 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
@@ -8364,18 +8438,18 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8386,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -8398,13 +8472,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>260</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>261</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
+        <v>262</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8455,19 +8529,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -8476,7 +8550,7 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>201</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -8484,21 +8558,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -8510,15 +8584,17 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>140</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -8543,13 +8619,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -8567,19 +8643,19 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -8588,50 +8664,54 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>428</v>
+        <v>201</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -8655,13 +8735,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -8679,19 +8759,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>272</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -8700,18 +8780,18 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8722,7 +8802,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -8734,13 +8814,13 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8791,13 +8871,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
@@ -8812,18 +8892,18 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>439</v>
+        <v>156</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8834,7 +8914,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -8846,13 +8926,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>165</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8879,13 +8959,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -8903,13 +8983,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
@@ -8924,18 +9004,18 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8946,7 +9026,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -8958,17 +9038,15 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -8993,13 +9071,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9017,13 +9095,13 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
@@ -9038,18 +9116,18 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9060,7 +9138,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9072,13 +9150,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9105,13 +9183,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9129,19 +9207,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>259</v>
+        <v>451</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9150,29 +9228,29 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9184,17 +9262,15 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>138</v>
+        <v>440</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>263</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9243,19 +9319,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -9264,54 +9340,50 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>197</v>
+        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>269</v>
+        <v>463</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -9335,13 +9407,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -9359,19 +9431,19 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>272</v>
+        <v>462</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -9380,18 +9452,18 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>136</v>
+        <v>467</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9399,10 +9471,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -9414,15 +9486,17 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -9471,13 +9545,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -9486,24 +9560,24 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>295</v>
+        <v>473</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9514,7 +9588,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -9526,17 +9600,15 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>261</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -9561,13 +9633,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -9585,19 +9657,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -9606,7 +9678,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>469</v>
+        <v>201</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -9614,21 +9686,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -9640,16 +9712,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>471</v>
+        <v>140</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>473</v>
+        <v>142</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9675,13 +9747,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -9699,19 +9771,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>267</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -9720,7 +9792,7 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -9735,35 +9807,39 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>270</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -9811,35 +9887,487 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>476</v>
+        <v>272</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AK71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN70">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9849,7 +10377,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-encounter.xlsx
+++ b/output/StructureDefinition-np-core-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
